--- a/report/src/期末项目数据.xlsx
+++ b/report/src/期末项目数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lin81\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linxiao/Desktop/DB Project/Course-Selectiion-Systerm-for-DB-Course/report/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A920D7A-CBD4-4543-AD89-502695AEDE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927EB9C-2334-E24C-8010-976CF1EC6A80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3330" windowWidth="9720" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="3780" windowWidth="32720" windowHeight="16160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>SNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,13 +148,41 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>lm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lxm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zxf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -218,29 +246,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -249,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,10 +272,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,155 +561,197 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
         <v>1101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
         <v>1102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="F3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
         <v>1103</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
         <v>1104</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
         <v>1105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="F6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
         <v>1106</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="F7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
         <v>1107</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
@@ -708,101 +766,102 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
         <v>8305001</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
         <v>8305002</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
         <v>8305003</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
         <v>8305004</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
         <v>8301001</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -811,27 +870,27 @@
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
         <v>8302001</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -845,13 +904,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BA3BC8-E5B9-49C2-9F70-B6421FBE5DDD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="16" thickBot="1">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
@@ -873,7 +932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="16" thickBot="1">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
@@ -884,7 +943,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="16" thickBot="1">
       <c r="A4" s="1">
         <v>1102</v>
       </c>
@@ -895,7 +954,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="16" thickBot="1">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
@@ -906,7 +965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="16" thickBot="1">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
@@ -917,7 +976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="16" thickBot="1">
       <c r="A7" s="1">
         <v>1103</v>
       </c>
@@ -928,7 +987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="16" thickBot="1">
       <c r="A8" s="1">
         <v>1103</v>
       </c>
@@ -939,7 +998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="16" thickBot="1">
       <c r="A9" s="1">
         <v>1103</v>
       </c>
@@ -950,7 +1009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="16" thickBot="1">
       <c r="A10" s="1">
         <v>1104</v>
       </c>
@@ -961,7 +1020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="16" thickBot="1">
       <c r="A11" s="1">
         <v>1104</v>
       </c>
@@ -972,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1">
         <v>1106</v>
       </c>
@@ -983,7 +1042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1">
         <v>1106</v>
       </c>
@@ -994,7 +1053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="16" thickBot="1">
       <c r="A14" s="1">
         <v>1107</v>
       </c>
@@ -1005,7 +1064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="16" thickBot="1">
       <c r="A15" s="1">
         <v>1107</v>
       </c>
